--- a/xlsx/FR/if_other_do_FR.xlsx
+++ b/xlsx/FR/if_other_do_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">If other countries do more, [Country] should do...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If other countries do less, [Country] should do...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Much less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Much more</t>
   </si>
 </sst>
 </file>
@@ -377,64 +377,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0201056004283801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0121756131773056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0413154944959805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.053858994070481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.591228071538405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.475356262467284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.219414223510487</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.34242255169865</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B6" t="n">
+        <v>0.127936610026748</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.116186578586279</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/if_other_do_FR.xlsx
+++ b/xlsx/FR/if_other_do_FR.xlsx
@@ -383,10 +383,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0201056004283801</v>
+        <v>0.0228890876337362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0121756131773056</v>
+        <v>0.0115586759031569</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0413154944959805</v>
+        <v>0.0349563732355862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.053858994070481</v>
+        <v>0.0570850984586861</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.591228071538405</v>
+        <v>0.572160877194469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.475356262467284</v>
+        <v>0.460076091585961</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219414223510487</v>
+        <v>0.228768588533615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.34242255169865</v>
+        <v>0.322162798579146</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127936610026748</v>
+        <v>0.141225073402594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116186578586279</v>
+        <v>0.14911733547305</v>
       </c>
     </row>
   </sheetData>
